--- a/ExcelTemplates/bin/Debug/Templates/_template_акт.xlsx
+++ b/ExcelTemplates/bin/Debug/Templates/_template_акт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>№</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Напечатано: %NOW% %TODAY%</t>
+  </si>
+  <si>
+    <t>%MATRIX%</t>
+  </si>
+  <si>
+    <t>%BARCODE%</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -536,6 +542,10 @@
       <alignment horizontal="left" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -670,6 +680,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -680,9 +693,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1053,7 +1063,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ42"/>
+  <dimension ref="A1:AQ50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1086,38 +1096,38 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
       <c r="AP2" s="11"/>
     </row>
     <row r="3" spans="2:43" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1173,223 +1183,223 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
       <c r="AP4" s="13"/>
     </row>
     <row r="5" spans="2:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
       <c r="AP5" s="16"/>
       <c r="AQ5" s="14"/>
     </row>
     <row r="6" spans="2:43" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
       <c r="AP6" s="15"/>
     </row>
     <row r="7" spans="2:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:43" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
       <c r="AP8" s="12"/>
     </row>
     <row r="9" spans="2:43" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:43" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
       <c r="AP10" s="12"/>
     </row>
     <row r="11" spans="2:43" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1436,42 +1446,42 @@
       <c r="AP11" s="6"/>
     </row>
     <row r="12" spans="2:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
@@ -1484,245 +1494,245 @@
     </row>
     <row r="13" spans="2:43" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="38" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="35" t="s">
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="56" t="s">
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="57"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="59"/>
     </row>
     <row r="15" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="59"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="61"/>
     </row>
     <row r="16" spans="2:43" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="53"/>
     </row>
     <row r="17" spans="2:42" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="25" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="26" t="s">
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="27" t="s">
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="42" t="s">
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="43"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="45"/>
     </row>
     <row r="18" spans="2:42" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="53"/>
-      <c r="AJ18" s="53"/>
-      <c r="AK18" s="53"/>
-      <c r="AL18" s="53"/>
-      <c r="AM18" s="53"/>
-      <c r="AN18" s="53"/>
-      <c r="AO18" s="53"/>
-      <c r="AP18" s="53"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
     </row>
     <row r="19" spans="2:42" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
@@ -1768,122 +1778,122 @@
       <c r="AP19" s="14"/>
     </row>
     <row r="20" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG20" s="52" t="s">
+      <c r="AG20" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="45" t="s">
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
     </row>
     <row r="21" spans="2:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AL21" s="46" t="s">
+      <c r="AL21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
     </row>
     <row r="22" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="47"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="49"/>
+      <c r="AP22" s="49"/>
     </row>
     <row r="23" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="50"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
     </row>
     <row r="24" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="17"/>
@@ -1929,49 +1939,49 @@
       <c r="AP24" s="17"/>
     </row>
     <row r="25" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="60"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="60"/>
-      <c r="AP25" s="60"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
     </row>
     <row r="26" spans="2:42" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
@@ -2017,49 +2027,49 @@
       <c r="AP26" s="18"/>
     </row>
     <row r="27" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
     </row>
     <row r="28" spans="2:42" s="1" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:42" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2109,106 +2119,106 @@
       <c r="AO30" s="19"/>
     </row>
     <row r="31" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="63"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="65"/>
+      <c r="AL31" s="65"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="65"/>
     </row>
     <row r="32" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="W32" s="31" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="W32" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
       <c r="AB32"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="64"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="66"/>
     </row>
     <row r="33" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
       <c r="X33"/>
       <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33"/>
-      <c r="AC33" s="65" t="s">
+      <c r="AC33" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="65"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="68"/>
+      <c r="AK33" s="68"/>
+      <c r="AL33" s="68"/>
+      <c r="AM33" s="68"/>
+      <c r="AN33" s="68"/>
     </row>
     <row r="34" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34"/>
@@ -2217,38 +2227,38 @@
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34"/>
       <c r="AA34"/>
       <c r="AB34"/>
-      <c r="AC34" s="63"/>
-      <c r="AD34" s="63"/>
-      <c r="AE34" s="63"/>
-      <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="63"/>
-      <c r="AN34" s="63"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="65"/>
     </row>
     <row r="35" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35"/>
@@ -2257,36 +2267,36 @@
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
       <c r="AB35"/>
-      <c r="AC35" s="63"/>
-      <c r="AD35" s="63"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="63"/>
-      <c r="AI35" s="63"/>
-      <c r="AJ35" s="63"/>
-      <c r="AK35" s="63"/>
-      <c r="AL35" s="63"/>
-      <c r="AM35" s="63"/>
-      <c r="AN35" s="63"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="65"/>
+      <c r="AL35" s="65"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="65"/>
     </row>
     <row r="36" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36"/>
@@ -2295,36 +2305,36 @@
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
       <c r="Z36"/>
       <c r="AA36"/>
       <c r="AB36"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="64"/>
-      <c r="AN36" s="64"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
     </row>
     <row r="37" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37"/>
@@ -2333,130 +2343,179 @@
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
-      <c r="I37" s="66" t="s">
+      <c r="I37" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
       <c r="W37"/>
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
       <c r="AA37"/>
       <c r="AB37"/>
-      <c r="AC37" s="65" t="s">
+      <c r="AC37" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-      <c r="AG37" s="65"/>
-      <c r="AH37" s="65"/>
-      <c r="AI37" s="65"/>
-      <c r="AJ37" s="65"/>
-      <c r="AK37" s="65"/>
-      <c r="AL37" s="65"/>
-      <c r="AM37" s="65"/>
-      <c r="AN37" s="65"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="68"/>
+      <c r="AH37" s="68"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="68"/>
+      <c r="AK37" s="68"/>
+      <c r="AL37" s="68"/>
+      <c r="AM37" s="68"/>
+      <c r="AN37" s="68"/>
     </row>
     <row r="41" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="69"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="69"/>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="69"/>
-      <c r="AH41" s="69"/>
-      <c r="AI41" s="69"/>
-      <c r="AJ41" s="69"/>
-      <c r="AK41" s="69"/>
-      <c r="AL41" s="69"/>
-      <c r="AM41" s="69"/>
-      <c r="AN41" s="69"/>
-      <c r="AO41" s="69"/>
-      <c r="AP41" s="69"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="67"/>
+      <c r="AG41" s="67"/>
+      <c r="AH41" s="67"/>
+      <c r="AI41" s="67"/>
+      <c r="AJ41" s="67"/>
+      <c r="AK41" s="67"/>
+      <c r="AL41" s="67"/>
+      <c r="AM41" s="67"/>
+      <c r="AN41" s="67"/>
+      <c r="AO41" s="67"/>
+      <c r="AP41" s="67"/>
     </row>
     <row r="42" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
-      <c r="AJ42" s="20"/>
-      <c r="AK42" s="20"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="20"/>
-      <c r="AO42" s="20"/>
-      <c r="AP42" s="20"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
+    </row>
+    <row r="50" spans="1:43" s="21" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="20"/>
+      <c r="AP50" s="20"/>
+      <c r="AQ50" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="42">
